--- a/sputnik/personal/ee/199ee.xlsx
+++ b/sputnik/personal/ee/199ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -46,6 +37,24 @@
   </si>
   <si>
     <t>134,70 доплатить</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -53,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,14 +82,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -109,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,42 +133,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,7 +149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,45 +158,22 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,351 +481,237 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43240</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43347</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>13644</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43277</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="2">
+        <v>14789</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43632</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>14344</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D8" si="0">C3-C2</f>
-        <v>700</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="C3" s="2">
+        <v>15009</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D5" si="0">C3-C2</f>
+        <v>220</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="8">
         <f>PRODUCT(D3,E3)</f>
-        <v>3003</v>
+        <v>1005.4000000000001</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1005.4</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1005.4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43347</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>14789</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>445</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="19">
-        <f>PRODUCT(D4,E4)</f>
-        <v>2002.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43632</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>15009</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4.57</v>
-      </c>
-      <c r="F5" s="19">
-        <f>PRODUCT(D5,E5)</f>
-        <v>1005.4000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43651</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="C4" s="2">
         <v>15159</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E4" s="4">
         <v>4.49</v>
       </c>
-      <c r="F6" s="19">
-        <f>PRODUCT(D6,E6)</f>
+      <c r="F4" s="8">
+        <f>PRODUCT(D4,E4)</f>
         <v>673.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G4" s="13">
+        <v>673.5</v>
+      </c>
+      <c r="H4" s="13">
+        <v>673.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>43672</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C5" s="2">
         <v>15317</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E5" s="4">
         <v>4.49</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F5" s="8">
+        <f>PRODUCT(D5,E5)</f>
+        <v>709.42000000000007</v>
+      </c>
+      <c r="G5" s="13">
+        <v>709.42</v>
+      </c>
+      <c r="H5" s="13">
+        <v>709.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43673</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>15347</v>
+      </c>
+      <c r="D6" s="11">
+        <f>C6-C5</f>
+        <v>30</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>445</v>
+      </c>
+      <c r="D7" s="2">
+        <v>445</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="8">
         <f>PRODUCT(D7,E7)</f>
-        <v>709.42000000000007</v>
+        <v>1998.0500000000002</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1998.05</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1998.05</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>43673</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="22">
-        <v>15347</v>
-      </c>
-      <c r="D8" s="22">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E8" s="22">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43691</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>445</v>
-      </c>
-      <c r="D9" s="3">
-        <v>445</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="19">
-        <f>PRODUCT(D9,E9)</f>
-        <v>1998.0500000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(G2:G7)</f>
+        <v>4521.07</v>
+      </c>
+      <c r="H8" s="13">
+        <f>SUM(H2:H7)</f>
+        <v>4386.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
+        <f>SUM(H8,-G8)</f>
+        <v>-134.69999999999982</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/199ee.xlsx
+++ b/sputnik/personal/ee/199ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -481,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
         <v>709.42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43673</v>
       </c>
@@ -681,35 +681,146 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
+      <c r="A8" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>745</v>
+      </c>
+      <c r="D8" s="2">
+        <v>300</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f>PRODUCT(D8,E8)</f>
+        <v>1347</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1347</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1162</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C8)</f>
+        <v>417</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="8">
+        <f>PRODUCT(D9,E9)</f>
+        <v>1872.3300000000002</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1872.33</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1872.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1562</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(C10,-C9)</f>
+        <v>400</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f>PRODUCT(D10,E10)</f>
+        <v>1796</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1796</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2276</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C10)</f>
+        <v>714</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="8">
+        <f>PRODUCT(D11,E11)</f>
+        <v>3205.86</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3205.86</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3205.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G12" s="13">
         <f>SUM(G2:G7)</f>
         <v>4521.07</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H12" s="13">
         <f>SUM(H2:H7)</f>
         <v>4386.37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
-        <f>SUM(H8,-G8)</f>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
+        <f>SUM(H12,-G12)</f>
         <v>-134.69999999999982</v>
       </c>
     </row>

--- a/sputnik/personal/ee/199ee.xlsx
+++ b/sputnik/personal/ee/199ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +174,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,7 +649,7 @@
       <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <v>134.69999999999999</v>
       </c>
       <c r="H6" s="13"/>
@@ -670,7 +671,7 @@
         <v>4.49</v>
       </c>
       <c r="F7" s="8">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" ref="F7:F12" si="1">PRODUCT(D7,E7)</f>
         <v>1998.0500000000002</v>
       </c>
       <c r="G7" s="13">
@@ -697,7 +698,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="1"/>
         <v>1347</v>
       </c>
       <c r="G8" s="13">
@@ -725,7 +726,7 @@
         <v>4.49</v>
       </c>
       <c r="F9" s="8">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="1"/>
         <v>1872.3300000000002</v>
       </c>
       <c r="G9" s="13">
@@ -753,7 +754,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" si="1"/>
         <v>1796</v>
       </c>
       <c r="G10" s="13">
@@ -781,7 +782,7 @@
         <v>4.49</v>
       </c>
       <c r="F11" s="8">
-        <f>PRODUCT(D11,E11)</f>
+        <f t="shared" si="1"/>
         <v>3205.86</v>
       </c>
       <c r="G11" s="13">
@@ -792,36 +793,92 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="3">
+        <v>44067</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2476</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(C12,-C11)</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>942</v>
+      </c>
+      <c r="G12" s="13">
+        <v>942</v>
+      </c>
+      <c r="H12" s="13">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44067</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2776</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(C13,-C12)</f>
+        <v>300</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13" si="2">PRODUCT(D13,E13)</f>
+        <v>1413</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1413</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="13">
-        <f>SUM(G2:G7)</f>
-        <v>4521.07</v>
-      </c>
-      <c r="H12" s="13">
-        <f>SUM(H2:H7)</f>
-        <v>4386.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="G14" s="13">
+        <f>SUM(G2:G13)</f>
+        <v>15097.26</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(H2:H13)</f>
+        <v>14962.560000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13">
-        <f>SUM(H12,-G12)</f>
-        <v>-134.69999999999982</v>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
+        <f>SUM(H14,-G14)</f>
+        <v>-134.69999999999891</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/199ee.xlsx
+++ b/sputnik/personal/ee/199ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -849,35 +849,91 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="3">
+        <v>44160</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2894</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(C14,-C13)</f>
+        <v>118</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14" si="3">PRODUCT(D14,E14)</f>
+        <v>555.78</v>
+      </c>
+      <c r="G14" s="13">
+        <v>555.78</v>
+      </c>
+      <c r="H14" s="13">
+        <v>555.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44160</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3194</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C14)</f>
+        <v>300</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ref="F15" si="4">PRODUCT(D15,E15)</f>
+        <v>1413</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1413</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13">
-        <f>SUM(G2:G13)</f>
-        <v>15097.26</v>
-      </c>
-      <c r="H14" s="13">
-        <f>SUM(H2:H13)</f>
-        <v>14962.560000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="G16" s="13">
+        <f>SUM(G2:G14)</f>
+        <v>15653.04</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(H2:H14)</f>
+        <v>15518.340000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14">
+        <f>SUM(H16,-G16)</f>
         <v>-134.69999999999891</v>
       </c>
     </row>

--- a/sputnik/personal/ee/199ee.xlsx
+++ b/sputnik/personal/ee/199ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
-  </si>
-  <si>
-    <t xml:space="preserve">сняли счетчик </t>
-  </si>
-  <si>
-    <t>134,70 доплатить</t>
   </si>
   <si>
     <t>День/ ночь</t>
@@ -64,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +83,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -137,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -160,18 +147,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -482,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -508,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -520,421 +495,296 @@
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43347</v>
+        <v>43691</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>14789</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+        <v>445</v>
+      </c>
+      <c r="D2" s="2">
+        <v>445</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F7" si="0">PRODUCT(D2,E2)</f>
+        <v>1998.0500000000002</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1998.05</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1998.05</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43632</v>
+        <v>43949</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>15009</v>
+        <v>745</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D5" si="0">C3-C2</f>
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="E3" s="4">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F3" s="8">
-        <f>PRODUCT(D3,E3)</f>
-        <v>1005.4000000000001</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1005.4</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1005.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1347</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1347</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43651</v>
+        <v>43949</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>15159</v>
+        <v>1162</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f t="shared" ref="D4:D10" si="1">SUM(C4,-C3)</f>
+        <v>417</v>
       </c>
       <c r="E4" s="4">
         <v>4.49</v>
       </c>
       <c r="F4" s="8">
-        <f>PRODUCT(D4,E4)</f>
-        <v>673.5</v>
-      </c>
-      <c r="G4" s="13">
-        <v>673.5</v>
-      </c>
-      <c r="H4" s="13">
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1872.3300000000002</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1872.33</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1872.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>43672</v>
+        <v>44012</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>15317</v>
+        <v>1562</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>158</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="E5" s="4">
         <v>4.49</v>
       </c>
       <c r="F5" s="8">
-        <f>PRODUCT(D5,E5)</f>
-        <v>709.42000000000007</v>
-      </c>
-      <c r="G5" s="13">
-        <v>709.42</v>
-      </c>
-      <c r="H5" s="13">
-        <v>709.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>43673</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
-        <v>15347</v>
-      </c>
-      <c r="D6" s="11">
-        <f>C6-C5</f>
-        <v>30</v>
-      </c>
-      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>1796</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1796</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2276</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>714</v>
+      </c>
+      <c r="E6" s="4">
         <v>4.49</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="14">
-        <v>134.69999999999999</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>3205.86</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3205.86</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3205.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>43691</v>
+        <v>44067</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>445</v>
+        <v>2476</v>
       </c>
       <c r="D7" s="2">
-        <v>445</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="E7" s="4">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F12" si="1">PRODUCT(D7,E7)</f>
-        <v>1998.0500000000002</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1998.05</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1998.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>942</v>
+      </c>
+      <c r="G7" s="9">
+        <v>942</v>
+      </c>
+      <c r="H7" s="9">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>43949</v>
+        <v>44067</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>745</v>
+        <v>2776</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="E8" s="4">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>1347</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1347</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1347</v>
+        <f t="shared" ref="F8" si="2">PRODUCT(D8,E8)</f>
+        <v>1413</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1413</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1413</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>43949</v>
+        <v>44160</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>1162</v>
+        <v>2894</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C8)</f>
-        <v>417</v>
+        <f t="shared" si="1"/>
+        <v>118</v>
       </c>
       <c r="E9" s="4">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>1872.3300000000002</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1872.33</v>
-      </c>
-      <c r="H9" s="13">
-        <v>1872.33</v>
+        <f t="shared" ref="F9" si="3">PRODUCT(D9,E9)</f>
+        <v>555.78</v>
+      </c>
+      <c r="G9" s="9">
+        <v>555.78</v>
+      </c>
+      <c r="H9" s="9">
+        <v>555.78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44012</v>
+        <v>44160</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>1562</v>
+        <v>3194</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C9)</f>
-        <v>400</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="E10" s="4">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>1796</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1796</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1796</v>
+        <f t="shared" ref="F10" si="4">PRODUCT(D10,E10)</f>
+        <v>1413</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1413</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1430</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>44012</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2276</v>
-      </c>
-      <c r="D11" s="2">
-        <f>SUM(C11,-C10)</f>
-        <v>714</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>3205.86</v>
-      </c>
-      <c r="G11" s="13">
-        <v>3205.86</v>
-      </c>
-      <c r="H11" s="13">
-        <v>3205.86</v>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9">
+        <f>SUM(G2:G9)</f>
+        <v>13130.02</v>
+      </c>
+      <c r="H11" s="9">
+        <f>SUM(H2:H9)</f>
+        <v>13130.02</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44067</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2476</v>
-      </c>
-      <c r="D12" s="2">
-        <f>SUM(C12,-C11)</f>
-        <v>200</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="1"/>
-        <v>942</v>
-      </c>
-      <c r="G12" s="13">
-        <v>942</v>
-      </c>
-      <c r="H12" s="13">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44067</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2776</v>
-      </c>
-      <c r="D13" s="2">
-        <f>SUM(C13,-C12)</f>
-        <v>300</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" ref="F13" si="2">PRODUCT(D13,E13)</f>
-        <v>1413</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1413</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44160</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2894</v>
-      </c>
-      <c r="D14" s="2">
-        <f>SUM(C14,-C13)</f>
-        <v>118</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14" si="3">PRODUCT(D14,E14)</f>
-        <v>555.78</v>
-      </c>
-      <c r="G14" s="13">
-        <v>555.78</v>
-      </c>
-      <c r="H14" s="13">
-        <v>555.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44160</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3194</v>
-      </c>
-      <c r="D15" s="2">
-        <f>SUM(C15,-C14)</f>
-        <v>300</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" ref="F15" si="4">PRODUCT(D15,E15)</f>
-        <v>1413</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1413</v>
-      </c>
-      <c r="H15" s="13">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13">
-        <f>SUM(G2:G14)</f>
-        <v>15653.04</v>
-      </c>
-      <c r="H16" s="13">
-        <f>SUM(H2:H14)</f>
-        <v>15518.340000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14">
-        <f>SUM(H16,-G16)</f>
-        <v>-134.69999999999891</v>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <f>SUM(H11,-G11)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/199ee.xlsx
+++ b/sputnik/personal/ee/199ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t>к доплате</t>
@@ -457,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -755,35 +752,83 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="A11" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3394</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11" si="5">SUM(C11,-C10)</f>
+        <v>200</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ref="F11" si="6">PRODUCT(D11,E11)</f>
+        <v>942</v>
+      </c>
+      <c r="G11" s="9">
+        <v>942</v>
+      </c>
+      <c r="H11" s="9">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44372</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3694</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12" si="7">SUM(C12,-C11)</f>
+        <v>300</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12" si="8">PRODUCT(D12,E12)</f>
+        <v>1413</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1430</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="9">
-        <f>SUM(G2:G9)</f>
-        <v>13130.02</v>
-      </c>
-      <c r="H11" s="9">
-        <f>SUM(H2:H9)</f>
-        <v>13130.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10">
-        <f>SUM(H11,-G11)</f>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10">
+        <f>SUM(H13,-G13)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/199ee.xlsx
+++ b/sputnik/personal/ee/199ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -454,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -808,27 +808,73 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="A13" s="3">
+        <v>44438</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3894</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="9">SUM(C13,-C12)</f>
+        <v>200</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13" si="10">PRODUCT(D13,E13)</f>
+        <v>992</v>
+      </c>
+      <c r="G13" s="9">
+        <v>992</v>
+      </c>
+      <c r="H13" s="9">
+        <v>992</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="3">
+        <v>44438</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4494</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="11">SUM(C14,-C13)</f>
+        <v>600</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14" si="12">PRODUCT(D14,E14)</f>
+        <v>2976</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2976</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10">
-        <f>SUM(H13,-G13)</f>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>
